--- a/artfynd/A 6176-2022.xlsx
+++ b/artfynd/A 6176-2022.xlsx
@@ -2881,7 +2881,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80762420</v>
+        <v>81135222</v>
       </c>
       <c r="B20" t="n">
         <v>96254</v>
@@ -2923,7 +2923,7 @@
         <v>6942656.968538293</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2977,19 +2977,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80762645</v>
+        <v>81135704</v>
       </c>
       <c r="B21" t="n">
         <v>77506</v>
@@ -3035,7 +3035,7 @@
         <v>6942775.169323936</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3089,12 +3089,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>80762441</v>
+        <v>81135243</v>
       </c>
       <c r="B27" t="n">
         <v>77506</v>
@@ -3707,7 +3707,7 @@
         <v>6942718.185619133</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3761,12 +3761,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>80762438</v>
+        <v>81135239</v>
       </c>
       <c r="B32" t="n">
         <v>77506</v>
@@ -4267,7 +4267,7 @@
         <v>6942735.777991366</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-08-25</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4321,12 +4321,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Andreas Bernhold, Anders Granér, Erland Lindblad</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
